--- a/wwwroot/62/ExtrasCalculation.xlsx
+++ b/wwwroot/62/ExtrasCalculation.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+  <si>
+    <t>CourseName</t>
+  </si>
   <si>
     <t>SubjectName</t>
   </si>
@@ -44,13 +47,19 @@
     <t>NodalSort</t>
   </si>
   <si>
+    <t>PaperName</t>
+  </si>
+  <si>
     <t>Inner_E10</t>
   </si>
   <si>
     <t>Outer_E10</t>
   </si>
   <si>
-    <t>Accounts</t>
+    <t>B.Sc. IFF (Part-III)</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL FISH AND FISHERIES</t>
   </si>
   <si>
     <t>University Extra</t>
@@ -59,13 +68,13 @@
     <t>30</t>
   </si>
   <si>
-    <t>320104</t>
-  </si>
-  <si>
-    <t>15/01/2025</t>
-  </si>
-  <si>
-    <t>01:00 PM TO 04:00 PM</t>
+    <t>126305</t>
+  </si>
+  <si>
+    <t>04-07-2025</t>
+  </si>
+  <si>
+    <t>10:00 AM TO 01:00 PM</t>
   </si>
   <si>
     <t>0</t>
@@ -77,247 +86,610 @@
     <t>100000</t>
   </si>
   <si>
+    <t>PAPER-V</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>320105</t>
-  </si>
-  <si>
-    <t>16/01/2025</t>
-  </si>
-  <si>
-    <t>Bhojpuri</t>
-  </si>
-  <si>
-    <t>330304</t>
-  </si>
-  <si>
-    <t>330305</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>330504</t>
-  </si>
-  <si>
-    <t>330505</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>330604</t>
-  </si>
-  <si>
-    <t>330605</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>330704</t>
-  </si>
-  <si>
-    <t>330705</t>
-  </si>
-  <si>
-    <t>Philosophy</t>
-  </si>
-  <si>
-    <t>331004</t>
-  </si>
-  <si>
-    <t>331005</t>
-  </si>
-  <si>
-    <t>Prakrit</t>
-  </si>
-  <si>
-    <t>331104</t>
-  </si>
-  <si>
-    <t>331105</t>
-  </si>
-  <si>
-    <t>Sanskrit</t>
-  </si>
-  <si>
-    <t>331204</t>
-  </si>
-  <si>
-    <t>331205</t>
-  </si>
-  <si>
-    <t>Urdu</t>
-  </si>
-  <si>
-    <t>331304</t>
-  </si>
-  <si>
-    <t>331305</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>340304</t>
-  </si>
-  <si>
-    <t>340305</t>
-  </si>
-  <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>340404</t>
-  </si>
-  <si>
-    <t>340405</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>340504</t>
-  </si>
-  <si>
-    <t>340505</t>
-  </si>
-  <si>
-    <t>Home Science</t>
-  </si>
-  <si>
-    <t>340605</t>
-  </si>
-  <si>
-    <t>Labour &amp; Social Welfare</t>
-  </si>
-  <si>
-    <t>340704</t>
-  </si>
-  <si>
-    <t>340705</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>340804</t>
-  </si>
-  <si>
-    <t>340805</t>
-  </si>
-  <si>
-    <t>Political Science</t>
-  </si>
-  <si>
-    <t>340904</t>
-  </si>
-  <si>
-    <t>340905</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
-    <t>341004</t>
-  </si>
-  <si>
-    <t>341005</t>
-  </si>
-  <si>
-    <t>Public Administration</t>
-  </si>
-  <si>
-    <t>341104</t>
-  </si>
-  <si>
-    <t>341105</t>
-  </si>
-  <si>
-    <t>Sociology</t>
-  </si>
-  <si>
-    <t>341304</t>
-  </si>
-  <si>
-    <t>341305</t>
-  </si>
-  <si>
-    <t>Course on Disaster Risk Management</t>
-  </si>
-  <si>
-    <t>370701</t>
-  </si>
-  <si>
-    <t>17/01/2025</t>
-  </si>
-  <si>
-    <t>370702</t>
-  </si>
-  <si>
-    <t>18/01/2025</t>
-  </si>
-  <si>
-    <t>Prospecting E-waste for sustainability</t>
-  </si>
-  <si>
-    <t>380501</t>
-  </si>
-  <si>
-    <t>20/01/2025</t>
-  </si>
-  <si>
-    <t>380502</t>
-  </si>
-  <si>
-    <t>21/01/2025</t>
-  </si>
-  <si>
-    <t>Graphics Design &amp; Animation</t>
-  </si>
-  <si>
-    <t>380601</t>
-  </si>
-  <si>
-    <t>380602</t>
-  </si>
-  <si>
-    <t>Statistical Software Package</t>
-  </si>
-  <si>
-    <t>380701</t>
-  </si>
-  <si>
-    <t>380702</t>
-  </si>
-  <si>
-    <t>Communication in Professional Life</t>
-  </si>
-  <si>
-    <t>380801</t>
-  </si>
-  <si>
-    <t>380802</t>
-  </si>
-  <si>
-    <t>Sustainable Ecotourism &amp; Entrepreneurship</t>
-  </si>
-  <si>
-    <t>380901</t>
-  </si>
-  <si>
-    <t>380902</t>
-  </si>
-  <si>
-    <t>Creative Writing</t>
-  </si>
-  <si>
-    <t>381001</t>
-  </si>
-  <si>
-    <t>381002</t>
+    <t>126306</t>
+  </si>
+  <si>
+    <t>04-08-2025</t>
+  </si>
+  <si>
+    <t>02:00 PM TO 05:00 PM</t>
+  </si>
+  <si>
+    <t>PAPER-VI</t>
+  </si>
+  <si>
+    <t>126307</t>
+  </si>
+  <si>
+    <t>04-11-2025</t>
+  </si>
+  <si>
+    <t>PAPER-VII</t>
+  </si>
+  <si>
+    <t>B.A.(General)-YEAR-3</t>
+  </si>
+  <si>
+    <t>ANCIENT INDIAN AND ASIAN STUDIES</t>
+  </si>
+  <si>
+    <t>303001</t>
+  </si>
+  <si>
+    <t>ECONOMICS</t>
+  </si>
+  <si>
+    <t>303002</t>
+  </si>
+  <si>
+    <t>04-09-2025</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>303003</t>
+  </si>
+  <si>
+    <t>17-04-2025</t>
+  </si>
+  <si>
+    <t>GEOGRAPHY</t>
+  </si>
+  <si>
+    <t>303004</t>
+  </si>
+  <si>
+    <t>HINDI</t>
+  </si>
+  <si>
+    <t>303005</t>
+  </si>
+  <si>
+    <t>HISTORY</t>
+  </si>
+  <si>
+    <t>303006</t>
+  </si>
+  <si>
+    <t>HOME SCIENCE</t>
+  </si>
+  <si>
+    <t>303007</t>
+  </si>
+  <si>
+    <t>16-04-2025</t>
+  </si>
+  <si>
+    <t>PHILOSOPHY</t>
+  </si>
+  <si>
+    <t>303010</t>
+  </si>
+  <si>
+    <t>POLITICAL SCIENCE</t>
+  </si>
+  <si>
+    <t>303011</t>
+  </si>
+  <si>
+    <t>PSYCHOLOGY</t>
+  </si>
+  <si>
+    <t>303013</t>
+  </si>
+  <si>
+    <t>04-12-2025</t>
+  </si>
+  <si>
+    <t>SANSKRIT</t>
+  </si>
+  <si>
+    <t>303015</t>
+  </si>
+  <si>
+    <t>SOCIOLOGY</t>
+  </si>
+  <si>
+    <t>303016</t>
+  </si>
+  <si>
+    <t>URDU</t>
+  </si>
+  <si>
+    <t>303017</t>
+  </si>
+  <si>
+    <t>B.A.(General)-Part-III</t>
+  </si>
+  <si>
+    <t>G.E.S.</t>
+  </si>
+  <si>
+    <t>303018</t>
+  </si>
+  <si>
+    <t>15-04-2025</t>
+  </si>
+  <si>
+    <t>BHOJPURI</t>
+  </si>
+  <si>
+    <t>303020</t>
+  </si>
+  <si>
+    <t>B.Sc. (General) Part-III</t>
+  </si>
+  <si>
+    <t>BOTANY</t>
+  </si>
+  <si>
+    <t>306001</t>
+  </si>
+  <si>
+    <t>CHEMISTRY</t>
+  </si>
+  <si>
+    <t>306002</t>
+  </si>
+  <si>
+    <t>B.A./B.Sc. (General) Part-III</t>
+  </si>
+  <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>306003</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>306004</t>
+  </si>
+  <si>
+    <t>ZOOLOGY</t>
+  </si>
+  <si>
+    <t>306005</t>
+  </si>
+  <si>
+    <t>B.A./B.Sc.(General)-Part-III</t>
+  </si>
+  <si>
+    <t>306006</t>
+  </si>
+  <si>
+    <t>B.Com. (General) Part-III</t>
+  </si>
+  <si>
+    <t>AUDITING</t>
+  </si>
+  <si>
+    <t>309002</t>
+  </si>
+  <si>
+    <t>B.Com.(General)-Part-III</t>
+  </si>
+  <si>
+    <t>INCOME TAX AND COST ACCOUNTING</t>
+  </si>
+  <si>
+    <t>309003</t>
+  </si>
+  <si>
+    <t>BUSINESS STATS. &amp; MATHS.</t>
+  </si>
+  <si>
+    <t>309005</t>
+  </si>
+  <si>
+    <t>B.Sc. Bio Technology (Part-III)</t>
+  </si>
+  <si>
+    <t>ANIMAL CELL BIOLOGY</t>
+  </si>
+  <si>
+    <t>310021</t>
+  </si>
+  <si>
+    <t>PLANT BIOTECHNOLOGY</t>
+  </si>
+  <si>
+    <t>310022</t>
+  </si>
+  <si>
+    <t>ENVIRONMENTAL BIOCHEMISTRY</t>
+  </si>
+  <si>
+    <t>310023</t>
+  </si>
+  <si>
+    <t>ENTREPRENEURSHIP DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>310024</t>
+  </si>
+  <si>
+    <t>B.Sc. (Hons) Part-III</t>
+  </si>
+  <si>
+    <t>311015</t>
+  </si>
+  <si>
+    <t>311016</t>
+  </si>
+  <si>
+    <t>311017</t>
+  </si>
+  <si>
+    <t>311025</t>
+  </si>
+  <si>
+    <t>311026</t>
+  </si>
+  <si>
+    <t>311027</t>
+  </si>
+  <si>
+    <t>B.A./B.Sc. (Hons) PART-III</t>
+  </si>
+  <si>
+    <t>311045</t>
+  </si>
+  <si>
+    <t>311046</t>
+  </si>
+  <si>
+    <t>311047</t>
+  </si>
+  <si>
+    <t>311048</t>
+  </si>
+  <si>
+    <t>PAPER-VIII</t>
+  </si>
+  <si>
+    <t>311055</t>
+  </si>
+  <si>
+    <t>311056</t>
+  </si>
+  <si>
+    <t>311057</t>
+  </si>
+  <si>
+    <t>311075</t>
+  </si>
+  <si>
+    <t>311076</t>
+  </si>
+  <si>
+    <t>311077</t>
+  </si>
+  <si>
+    <t>B.B.A. (Honours)-Part-III</t>
+  </si>
+  <si>
+    <t>HUMAN RESOURCE MANAGEMENT</t>
+  </si>
+  <si>
+    <t>311511</t>
+  </si>
+  <si>
+    <t>PAPER-XI</t>
+  </si>
+  <si>
+    <t>TAXATION LAW &amp; ACCOUNTING</t>
+  </si>
+  <si>
+    <t>311512</t>
+  </si>
+  <si>
+    <t>PAPER-XII</t>
+  </si>
+  <si>
+    <t>MARKETING MANAGEMENT</t>
+  </si>
+  <si>
+    <t>311513</t>
+  </si>
+  <si>
+    <t>PAPER-XIII</t>
+  </si>
+  <si>
+    <t>MONEY &amp; BANKING</t>
+  </si>
+  <si>
+    <t>311514</t>
+  </si>
+  <si>
+    <t>PAPER-XIV</t>
+  </si>
+  <si>
+    <t>COMPUTER APPLICATION</t>
+  </si>
+  <si>
+    <t>311515</t>
+  </si>
+  <si>
+    <t>PAPER-XV</t>
+  </si>
+  <si>
+    <t>B.A. (Hons) PART-III</t>
+  </si>
+  <si>
+    <t>ANCIENT HISTORY</t>
+  </si>
+  <si>
+    <t>321015</t>
+  </si>
+  <si>
+    <t>321016</t>
+  </si>
+  <si>
+    <t>321017</t>
+  </si>
+  <si>
+    <t>321018</t>
+  </si>
+  <si>
+    <t>321065</t>
+  </si>
+  <si>
+    <t>321066</t>
+  </si>
+  <si>
+    <t>321067</t>
+  </si>
+  <si>
+    <t>321068</t>
+  </si>
+  <si>
+    <t>321075</t>
+  </si>
+  <si>
+    <t>321076</t>
+  </si>
+  <si>
+    <t>321077</t>
+  </si>
+  <si>
+    <t>321078</t>
+  </si>
+  <si>
+    <t>321085</t>
+  </si>
+  <si>
+    <t>321086</t>
+  </si>
+  <si>
+    <t>321087</t>
+  </si>
+  <si>
+    <t>321095</t>
+  </si>
+  <si>
+    <t>321096</t>
+  </si>
+  <si>
+    <t>321097</t>
+  </si>
+  <si>
+    <t>321098</t>
+  </si>
+  <si>
+    <t>321105</t>
+  </si>
+  <si>
+    <t>321106</t>
+  </si>
+  <si>
+    <t>321107</t>
+  </si>
+  <si>
+    <t>321108</t>
+  </si>
+  <si>
+    <t>321115</t>
+  </si>
+  <si>
+    <t>321116</t>
+  </si>
+  <si>
+    <t>321117</t>
+  </si>
+  <si>
+    <t>321118</t>
+  </si>
+  <si>
+    <t>LABOUR &amp; SOCIAL WELFARE</t>
+  </si>
+  <si>
+    <t>321125</t>
+  </si>
+  <si>
+    <t>321126</t>
+  </si>
+  <si>
+    <t>321127</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>321165</t>
+  </si>
+  <si>
+    <t>321166</t>
+  </si>
+  <si>
+    <t>PALI</t>
+  </si>
+  <si>
+    <t>321175</t>
+  </si>
+  <si>
+    <t>321176</t>
+  </si>
+  <si>
+    <t>321177</t>
+  </si>
+  <si>
+    <t>321178</t>
+  </si>
+  <si>
+    <t>321195</t>
+  </si>
+  <si>
+    <t>321196</t>
+  </si>
+  <si>
+    <t>321197</t>
+  </si>
+  <si>
+    <t>321198</t>
+  </si>
+  <si>
+    <t>321205</t>
+  </si>
+  <si>
+    <t>321206</t>
+  </si>
+  <si>
+    <t>321207</t>
+  </si>
+  <si>
+    <t>321208</t>
+  </si>
+  <si>
+    <t>PRAKRIT</t>
+  </si>
+  <si>
+    <t>321215</t>
+  </si>
+  <si>
+    <t>321216</t>
+  </si>
+  <si>
+    <t>321217</t>
+  </si>
+  <si>
+    <t>321218</t>
+  </si>
+  <si>
+    <t>321225</t>
+  </si>
+  <si>
+    <t>321226</t>
+  </si>
+  <si>
+    <t>321227</t>
+  </si>
+  <si>
+    <t>PUBLIC ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>321235</t>
+  </si>
+  <si>
+    <t>321236</t>
+  </si>
+  <si>
+    <t>321237</t>
+  </si>
+  <si>
+    <t>321238</t>
+  </si>
+  <si>
+    <t>321255</t>
+  </si>
+  <si>
+    <t>321256</t>
+  </si>
+  <si>
+    <t>321257</t>
+  </si>
+  <si>
+    <t>321258</t>
+  </si>
+  <si>
+    <t>321265</t>
+  </si>
+  <si>
+    <t>321266</t>
+  </si>
+  <si>
+    <t>321267</t>
+  </si>
+  <si>
+    <t>321268</t>
+  </si>
+  <si>
+    <t>321275</t>
+  </si>
+  <si>
+    <t>321276</t>
+  </si>
+  <si>
+    <t>321277</t>
+  </si>
+  <si>
+    <t>321278</t>
+  </si>
+  <si>
+    <t>321285</t>
+  </si>
+  <si>
+    <t>321286</t>
+  </si>
+  <si>
+    <t>321287</t>
+  </si>
+  <si>
+    <t>321288</t>
+  </si>
+  <si>
+    <t>B.Com. (Hons) Part-III</t>
+  </si>
+  <si>
+    <t>ACCOUNTS</t>
+  </si>
+  <si>
+    <t>331015</t>
+  </si>
+  <si>
+    <t>331016</t>
+  </si>
+  <si>
+    <t>331017</t>
+  </si>
+  <si>
+    <t>331018</t>
+  </si>
+  <si>
+    <t>Honours Part-III (Grp-A)</t>
+  </si>
+  <si>
+    <t>390001</t>
+  </si>
+  <si>
+    <t>Honours Part-III (Grp-B)</t>
+  </si>
+  <si>
+    <t>390002</t>
+  </si>
+  <si>
+    <t>Honours Part-III (Grp-C)</t>
+  </si>
+  <si>
+    <t>390003</t>
   </si>
 </sst>
 </file>
@@ -369,24 +741,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr ">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.56376266479492" customWidth="1"/>
-    <col min="2" max="2" width="16.09404182434082" customWidth="1"/>
-    <col min="3" max="3" width="9.218536376953125" customWidth="1"/>
-    <col min="4" max="4" width="9.162454605102539" customWidth="1"/>
-    <col min="5" max="5" width="13.382554054260254" customWidth="1"/>
-    <col min="6" max="6" width="23.687652587890625" customWidth="1"/>
-    <col min="7" max="7" width="11.907477378845215" customWidth="1"/>
-    <col min="8" max="8" width="11.134539604187012" customWidth="1"/>
-    <col min="9" max="9" width="11.811811447143555" customWidth="1"/>
-    <col min="10" max="10" width="10.976926803588867" customWidth="1"/>
-    <col min="11" max="11" width="11.987889289855957" customWidth="1"/>
-    <col min="12" max="12" width="12.143038749694824" customWidth="1"/>
+    <col min="1" max="1" width="29.566024780273438" customWidth="1"/>
+    <col min="2" max="2" width="37.700557708740234" customWidth="1"/>
+    <col min="3" max="3" width="16.09404182434082" customWidth="1"/>
+    <col min="4" max="4" width="9.218536376953125" customWidth="1"/>
+    <col min="5" max="5" width="9.162454605102539" customWidth="1"/>
+    <col min="6" max="6" width="13.382554054260254" customWidth="1"/>
+    <col min="7" max="7" width="23.803110122680664" customWidth="1"/>
+    <col min="8" max="8" width="11.907477378845215" customWidth="1"/>
+    <col min="9" max="9" width="11.134539604187012" customWidth="1"/>
+    <col min="10" max="10" width="11.811811447143555" customWidth="1"/>
+    <col min="11" max="11" width="10.976926803588867" customWidth="1"/>
+    <col min="12" max="12" width="37.700557708740234" customWidth="1"/>
+    <col min="13" max="13" width="11.987889289855957" customWidth="1"/>
+    <col min="14" max="14" width="12.143038749694824" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -426,309 +800,363 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -736,37 +1164,43 @@
         <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -774,1595 +1208,5323 @@
         <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>21</v>
+        <v>53</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>21</v>
+        <v>68</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>21</v>
+        <v>71</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>21</v>
+        <v>73</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>21</v>
+        <v>80</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>21</v>
+        <v>85</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>21</v>
+        <v>90</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>21</v>
+        <v>93</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>21</v>
+        <v>95</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>21</v>
+        <v>97</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>21</v>
+        <v>99</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="C35" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>21</v>
+        <v>113</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>21</v>
+        <v>123</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>21</v>
+        <v>126</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>21</v>
+        <v>129</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="0" t="s">
+      <c r="G54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>21</v>
+      <c r="G58" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N96" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L104" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M104" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N106" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M107" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N107" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N108" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N109" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N110" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N111" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N112" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N113" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L114" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M114" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N114" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L115" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N115" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L116" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M116" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N116" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N117" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N118" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N119" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L120" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N120" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L121" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N121" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L122" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N122" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N123" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L124" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N124" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L125" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N125" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M126" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N126" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N127" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L128" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M128" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N128" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L129" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M129" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N129" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L130" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M130" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N130" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M131" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N131" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
